--- a/documentation/import_samples/2025-04-01-2025-06-30 Excel File.xlsx
+++ b/documentation/import_samples/2025-04-01-2025-06-30 Excel File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WimpieProgramming\DCIPythonCourse\FinalProject\FamilyThings\documentation\import_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EADE818-B137-41C3-8EDD-148AF54699CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3678530B-1EDD-4950-BE1A-9E71B4A897E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FA4BD02-AD15-42C5-9862-36D11F910600}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FA4BD02-AD15-42C5-9862-36D11F910600}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1688,7 +1688,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1706,7 +1706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3039,7 +3038,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45FEB23A-A7B3-4458-AAB7-7B1DDFDA6577}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45FEB23A-A7B3-4458-AAB7-7B1DDFDA6577}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -3555,7 +3554,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6755,7 +6754,7 @@
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2">
         <v>-33.47</v>
       </c>
     </row>
@@ -6763,7 +6762,7 @@
       <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3">
         <v>-4.9000000000000004</v>
       </c>
     </row>
@@ -6771,7 +6770,7 @@
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4">
         <v>-452.47</v>
       </c>
     </row>
@@ -6779,7 +6778,7 @@
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5">
         <v>-36.93</v>
       </c>
     </row>
@@ -6787,7 +6786,7 @@
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6">
         <v>-84.56</v>
       </c>
     </row>
@@ -6795,7 +6794,7 @@
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7">
         <v>-77</v>
       </c>
     </row>
@@ -6803,7 +6802,7 @@
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8">
         <v>-2.5</v>
       </c>
     </row>
@@ -6811,7 +6810,7 @@
       <c r="A9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9">
         <v>-45.16</v>
       </c>
     </row>
@@ -6819,7 +6818,7 @@
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10">
         <v>765</v>
       </c>
     </row>
@@ -6827,7 +6826,7 @@
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11">
         <v>4500</v>
       </c>
     </row>
@@ -6835,7 +6834,7 @@
       <c r="A12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12">
         <v>-450</v>
       </c>
     </row>
@@ -6843,7 +6842,7 @@
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13">
         <v>-135.75</v>
       </c>
     </row>
@@ -6851,7 +6850,7 @@
       <c r="A14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14">
         <v>280.22000000000003</v>
       </c>
     </row>
@@ -6859,7 +6858,7 @@
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15">
         <v>-44.97</v>
       </c>
     </row>
@@ -6867,7 +6866,7 @@
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16">
         <v>-65.36</v>
       </c>
     </row>
@@ -6875,7 +6874,7 @@
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17">
         <v>-72</v>
       </c>
     </row>
@@ -6883,7 +6882,7 @@
       <c r="A18" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18">
         <v>-325</v>
       </c>
     </row>
@@ -6891,7 +6890,7 @@
       <c r="A19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19">
         <v>-66.099999999999994</v>
       </c>
     </row>
@@ -6899,7 +6898,7 @@
       <c r="A20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20">
         <v>-848.6099999999999</v>
       </c>
     </row>
@@ -6907,7 +6906,7 @@
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21">
         <v>-289.29000000000002</v>
       </c>
     </row>
@@ -6915,7 +6914,7 @@
       <c r="A22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22">
         <v>-56.17</v>
       </c>
     </row>
@@ -6923,7 +6922,7 @@
       <c r="A23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23">
         <v>-50</v>
       </c>
     </row>
@@ -6931,7 +6930,7 @@
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24">
         <v>-97.51</v>
       </c>
     </row>
@@ -6939,7 +6938,7 @@
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25">
         <v>-400.53000000000009</v>
       </c>
     </row>
@@ -6947,7 +6946,7 @@
       <c r="A26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26">
         <v>-83.14</v>
       </c>
     </row>
@@ -6955,7 +6954,7 @@
       <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27">
         <v>-20.98</v>
       </c>
     </row>
@@ -6963,7 +6962,7 @@
       <c r="A28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28">
         <v>-23.49</v>
       </c>
     </row>
@@ -6971,7 +6970,7 @@
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29">
         <v>-55.08</v>
       </c>
     </row>
@@ -6979,7 +6978,7 @@
       <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30">
         <v>-263.26</v>
       </c>
     </row>
@@ -6987,7 +6986,7 @@
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31">
         <v>-9.39</v>
       </c>
     </row>
@@ -6995,7 +6994,7 @@
       <c r="A32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32">
         <v>-142.62</v>
       </c>
     </row>
@@ -7003,7 +7002,7 @@
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33">
         <v>-107.29</v>
       </c>
     </row>
@@ -7011,7 +7010,7 @@
       <c r="A34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34">
         <v>-7</v>
       </c>
     </row>
@@ -7019,7 +7018,7 @@
       <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35">
         <v>-71.599999999999994</v>
       </c>
     </row>
@@ -7027,7 +7026,7 @@
       <c r="A36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36">
         <v>-101.36</v>
       </c>
     </row>
@@ -7035,7 +7034,7 @@
       <c r="A37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37">
         <v>-22</v>
       </c>
     </row>
@@ -7043,7 +7042,7 @@
       <c r="A38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38">
         <v>999.73000000000013</v>
       </c>
     </row>

--- a/documentation/import_samples/2025-04-01-2025-06-30 Excel File.xlsx
+++ b/documentation/import_samples/2025-04-01-2025-06-30 Excel File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WimpieProgramming\DCIPythonCourse\FinalProject\FamilyThings\documentation\import_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3678530B-1EDD-4950-BE1A-9E71B4A897E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CBF257-4F9C-4337-B028-A318829FBCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FA4BD02-AD15-42C5-9862-36D11F910600}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FA4BD02-AD15-42C5-9862-36D11F910600}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="369">
   <si>
     <t>Auftragskonto</t>
   </si>
@@ -1125,6 +1125,15 @@
   </si>
   <si>
     <t>EREF+Money I owed you</t>
+  </si>
+  <si>
+    <t>My Best Employer</t>
+  </si>
+  <si>
+    <t>Bundesagentur fur Arbeit -Kindergeldt</t>
+  </si>
+  <si>
+    <t>Zahnartz Dr. Utker</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1576,67 +1585,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
@@ -1688,24 +1638,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1751,7 +1692,180 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3251,6 +3365,29 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32F4B27F-65DC-479E-9F94-4A310E4D983E}" name="Table1" displayName="Table1" ref="A1:K90" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="12">
+  <autoFilter ref="A1:K90" xr:uid="{2520FCA0-A20E-4F92-AA2E-D33DB1FC1F15}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K90">
+    <sortCondition ref="C1:C90"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{87EA5208-0751-4149-93A0-FA7D7FF657F8}" name="Auftragskonto" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{7B33CB45-0E02-43A8-BCDF-79D7F121942E}" name="Buchungstag" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E1F6FBD5-D606-415A-B875-DF4AE9EF6B24}" name="Valutadatum" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{854FDE4D-EF18-4C8B-A41B-93AC9182DE5B}" name="Buchungstext" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{8FE5FB89-7630-43EB-875F-F245767D67D2}" name="Verwendungszweck" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{63A9DE86-51E7-4739-93A0-A01AC8C21468}" name="Beguenstigter/Zahlungspflichtiger" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{000CB0C3-BAF1-4AC9-A718-B5354D6D1731}" name="Kontonummer" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{889486CE-1AD8-4D2F-A749-B1736A7297A3}" name="BLZ" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{C29BE553-B3BD-498D-92E8-3B6B8A9C11DD}" name="Betrag" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{25B78EDB-D9D5-4C48-A351-BC428D2BAE50}" name="Waehrung" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{4430071D-F25A-42DB-8934-88F2DEBF7891}" name="Info" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3554,7 +3691,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3572,3159 +3709,3161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-14.95</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-32.950000000000003</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-54.66</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-101.25</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-250</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-24</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-24</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="4">
+        <v>-109.89</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-35.96</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-56.82</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-50</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-127.14</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-30.8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-14.72</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-71.599999999999994</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I19" s="4">
+        <v>129.88999999999999</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-23.49</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-440.09</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I22" s="4">
+        <v>-16.48</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="4">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I24" s="4">
+        <v>-24.98</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I25" s="4">
+        <v>-66.099999999999994</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-345.22</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-23.47</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I28" s="3">
+        <v>-88.12</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-22</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I30" s="3">
+        <v>-11.49</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I31" s="3">
+        <v>-50</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" s="4">
+        <v>-75</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-79.42</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I34" s="3">
+        <v>-70.650000000000006</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-50.06</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I36" s="4">
+        <v>-101.36</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" s="3">
+        <v>255</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I38" s="4">
+        <v>-11.95</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" s="4">
+        <v>-12.99</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" s="3">
+        <v>255</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I41" s="3">
+        <v>150.33000000000001</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="4">
+        <v>-59.23</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I43" s="4">
+        <v>255</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I45" s="4">
+        <v>-22.37</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I46" s="4">
+        <v>-45.16</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I47" s="4">
+        <v>-263.26</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="3">
+        <v>-69.989999999999995</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I49" s="3">
+        <v>-14.99</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I50" s="4">
+        <v>-35.61</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I51" s="4">
+        <v>-46</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I52" s="4">
+        <v>-26.66</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I53" s="3">
+        <v>-44.98</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I54" s="4">
+        <v>-65.36</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I55" s="4">
+        <v>-14.99</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I56" s="3">
+        <v>-55.08</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I57" s="4">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I58" s="3">
+        <v>-14.99</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I59" s="3">
+        <v>-20.98</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I60" s="4">
+        <v>-47.54</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I61" s="3">
+        <v>-7.2</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I62" s="3">
+        <v>-8.61</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I63" s="3">
+        <v>-14.99</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I64" s="4">
+        <v>-12.91</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I65" s="3">
+        <v>-14.99</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I66" s="3">
+        <v>-16.989999999999998</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I67" s="3">
+        <v>-47.53</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I68" s="3">
+        <v>-55.29</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I69" s="4">
+        <v>-47.54</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I70" s="3">
+        <v>-47.54</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I71" s="3">
+        <v>-7</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-9.39</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I73" s="4">
+        <v>-61.59</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I74" s="3">
+        <v>-65.05</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I75" s="4">
+        <v>-5.9</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-13.5</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I77" s="3">
+        <v>-22.98</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I78" s="4">
+        <v>-26</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I79" s="3">
+        <v>-31.09</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I80" s="4">
+        <v>-36.64</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-8.99</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I82" s="4">
+        <v>-41.48</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I83" s="4">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1500</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C85" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D85" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E85" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F85" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G85" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H85" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I85" s="3">
         <v>-33.47</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="J85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I86" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1500</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" s="13">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="I4" s="10">
-        <v>-55.29</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="I5" s="13">
-        <v>-59.23</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="I6" s="10">
-        <v>-56.82</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I7" s="13">
-        <v>-109.89</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I8" s="10">
-        <v>-69.989999999999995</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="I9" s="13">
-        <v>-101.25</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="E88" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I88" s="4">
+        <v>-41.45</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I10" s="10">
-        <v>-8.99</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="13">
-        <v>-12.99</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="I12" s="10">
-        <v>-14.95</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I13" s="13">
-        <v>-12.91</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="10">
-        <v>-16.989999999999998</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="I15" s="13">
-        <v>-54.66</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="10">
-        <v>-65.05</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" s="13">
-        <v>-11.95</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I18" s="10">
-        <v>-14.72</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="I19" s="13">
-        <v>-41.45</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="I20" s="10">
-        <v>-2.5</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-45.16</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="I22" s="10">
-        <v>-22.98</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="I23" s="13">
-        <v>-16.48</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="I24" s="10">
-        <v>-23.47</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="I25" s="13">
-        <v>-24.98</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I26" s="10">
-        <v>255</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="I27" s="13">
-        <v>255</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="I28" s="10">
-        <v>255</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="I29" s="13">
-        <v>1500</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="I30" s="10">
-        <v>1500</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I31" s="13">
-        <v>1500</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="I32" s="10">
-        <v>-8.61</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="I33" s="13">
-        <v>-127.14</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="I34" s="10">
-        <v>150.33000000000001</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="I35" s="13">
-        <v>129.88999999999999</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="I36" s="10">
-        <v>-14.99</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="I37" s="13">
-        <v>-14.99</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="I38" s="10">
-        <v>-14.99</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I39" s="13">
-        <v>-65.36</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="I40" s="10">
+      <c r="E89" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I89" s="4">
+        <v>-55</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I90" s="4">
         <v>-200</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="I41" s="13">
-        <v>-250</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="I42" s="10">
-        <v>-24</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="I43" s="13">
-        <v>-24</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="I44" s="10">
-        <v>-24</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="I45" s="13">
-        <v>-200</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="I46" s="10">
-        <v>-50</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="I47" s="13">
-        <v>-75</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="I48" s="10">
-        <v>-440.09</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-26</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="I50" s="10">
-        <v>-345.22</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="I51" s="13">
-        <v>-17.899999999999999</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I52" s="10">
-        <v>-13.5</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="I53" s="13">
-        <v>-5.9</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I54" s="10">
-        <v>-7.2</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="I55" s="13">
-        <v>-22.37</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I56" s="10">
-        <v>-88.12</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="I57" s="13">
-        <v>-4.2699999999999996</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="I58" s="10">
-        <v>-79.42</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="I59" s="13">
-        <v>-66.099999999999994</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="I60" s="10">
-        <v>-50.06</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="I61" s="13">
-        <v>-35.96</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="I62" s="10">
-        <v>-11.49</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="I63" s="13">
-        <v>-41.48</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="I64" s="10">
-        <v>-14.99</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="I65" s="13">
-        <v>-46</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="I66" s="10">
-        <v>-30.8</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="I67" s="13">
-        <v>-55</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="I68" s="10">
-        <v>-31.09</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="I69" s="13">
-        <v>-61.59</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="I70" s="10">
-        <v>-14.99</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="I71" s="13">
-        <v>-26.66</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I72" s="10">
-        <v>-44.98</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="I73" s="13">
-        <v>-32.950000000000003</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="I74" s="10">
-        <v>-47.53</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="I75" s="13">
-        <v>-35.61</v>
-      </c>
-      <c r="J75" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="I76" s="10">
-        <v>-20.98</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="I77" s="13">
-        <v>-23.49</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="I78" s="10">
-        <v>-55.08</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="I79" s="13">
-        <v>-263.26</v>
-      </c>
-      <c r="J79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I80" s="10">
-        <v>-9.39</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="I81" s="13">
-        <v>-47.54</v>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="I82" s="10">
-        <v>-47.54</v>
-      </c>
-      <c r="J82" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="I83" s="13">
-        <v>-47.54</v>
-      </c>
-      <c r="J83" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="I84" s="10">
-        <v>-70.650000000000006</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="I85" s="13">
-        <v>-36.64</v>
-      </c>
-      <c r="J85" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="I86" s="10">
-        <v>-7</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="I87" s="13">
-        <v>-50</v>
-      </c>
-      <c r="J87" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I88" s="10">
-        <v>-71.599999999999994</v>
-      </c>
-      <c r="J88" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="I89" s="13">
-        <v>-101.36</v>
-      </c>
-      <c r="J89" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I90" s="2">
-        <v>-22</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="3" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K90" xr:uid="{2520FCA0-A20E-4F92-AA2E-D33DB1FC1F15}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6743,7 +6882,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B1" t="s">
@@ -6751,7 +6890,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B2">
@@ -6759,7 +6898,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B3">
@@ -6767,7 +6906,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B4">
@@ -6775,7 +6914,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B5">
@@ -6783,7 +6922,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B6">
@@ -6791,7 +6930,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B7">
@@ -6799,7 +6938,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B8">
@@ -6807,7 +6946,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B9">
@@ -6815,7 +6954,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B10">
@@ -6823,7 +6962,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11">
@@ -6831,7 +6970,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B12">
@@ -6839,7 +6978,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13">
@@ -6847,7 +6986,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B14">
@@ -6855,7 +6994,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B15">
@@ -6863,7 +7002,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B16">
@@ -6871,7 +7010,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B17">
@@ -6879,7 +7018,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B18">
@@ -6887,7 +7026,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B19">
@@ -6895,7 +7034,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B20">
@@ -6903,7 +7042,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B21">
@@ -6911,7 +7050,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B22">
@@ -6919,7 +7058,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B23">
@@ -6927,7 +7066,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B24">
@@ -6935,7 +7074,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B25">
@@ -6943,7 +7082,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B26">
@@ -6951,7 +7090,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B27">
@@ -6959,7 +7098,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B28">
@@ -6967,7 +7106,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B29">
@@ -6975,7 +7114,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B30">
@@ -6983,7 +7122,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B31">
@@ -6991,7 +7130,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B32">
@@ -6999,7 +7138,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B33">
@@ -7007,7 +7146,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B34">
@@ -7015,7 +7154,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B35">
@@ -7023,7 +7162,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B36">
@@ -7031,7 +7170,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B37">
@@ -7039,7 +7178,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B38">
